--- a/Autocoup.xlsx
+++ b/Autocoup.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/qingengdu/GitHub/QuartoPub/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/qingengdu/GitHub/Datasets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E598F2E-7AAB-394D-B9EF-4BADA9013DBE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71A50DEA-362A-FD4B-B5C3-66BB0BB0FB8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28800" yWindow="1180" windowWidth="38400" windowHeight="21100" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28800" yWindow="680" windowWidth="38400" windowHeight="21600" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Autocoup" sheetId="6" r:id="rId1"/>
@@ -4569,7 +4569,7 @@
       <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C7" sqref="C7"/>
+      <selection pane="bottomRight" activeCell="F121" sqref="F121"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16"/>

--- a/Autocoup.xlsx
+++ b/Autocoup.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/qingengdu/GitHub/Datasets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4ABCCA14-4A55-6040-BA90-4FEB13D7E53A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A70F7FEB-AFF6-2E43-88B2-42AE822D2FC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28800" yWindow="680" windowWidth="38400" windowHeight="21600" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28800" yWindow="1180" windowWidth="38400" windowHeight="21100" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Autocoup" sheetId="6" r:id="rId1"/>
@@ -3883,7 +3883,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="61">
+  <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -4043,12 +4043,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -4542,10 +4536,10 @@
   <dimension ref="A1:AO111"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="D88" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E1" sqref="E1:E1048576"/>
+      <selection pane="bottomRight" activeCell="D108" sqref="D108"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16"/>
@@ -4820,7 +4814,7 @@
       <c r="J3" s="22" t="s">
         <v>73</v>
       </c>
-      <c r="K3" s="60" t="s">
+      <c r="K3" s="41" t="s">
         <v>1024</v>
       </c>
       <c r="L3" s="22" t="s">
@@ -4915,7 +4909,7 @@
       <c r="J4" s="7" t="s">
         <v>138</v>
       </c>
-      <c r="K4" s="59" t="s">
+      <c r="K4" s="42" t="s">
         <v>1024</v>
       </c>
       <c r="L4" s="7" t="s">
@@ -5546,7 +5540,7 @@
       <c r="J11" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="K11" s="59" t="s">
+      <c r="K11" s="42" t="s">
         <v>1024</v>
       </c>
       <c r="L11" s="7" t="s">
@@ -5653,7 +5647,7 @@
       <c r="J12" s="7" t="s">
         <v>1127</v>
       </c>
-      <c r="K12" s="59" t="s">
+      <c r="K12" s="42" t="s">
         <v>1023</v>
       </c>
       <c r="L12" s="7" t="s">
@@ -5722,7 +5716,7 @@
       <c r="J13" s="7" t="s">
         <v>1026</v>
       </c>
-      <c r="K13" s="59" t="s">
+      <c r="K13" s="42" t="s">
         <v>1024</v>
       </c>
       <c r="L13" s="7" t="s">
@@ -5895,10 +5889,10 @@
       <c r="I15" s="6" t="s">
         <v>1023</v>
       </c>
-      <c r="J15" s="59" t="s">
+      <c r="J15" s="42" t="s">
         <v>264</v>
       </c>
-      <c r="K15" s="59" t="s">
+      <c r="K15" s="42" t="s">
         <v>1023</v>
       </c>
       <c r="L15" s="7" t="s">
@@ -5994,10 +5988,10 @@
       <c r="I16" s="21" t="s">
         <v>1023</v>
       </c>
-      <c r="J16" s="60" t="s">
+      <c r="J16" s="41" t="s">
         <v>1071</v>
       </c>
-      <c r="K16" s="60" t="s">
+      <c r="K16" s="41" t="s">
         <v>1024</v>
       </c>
       <c r="L16" s="22" t="s">
@@ -6090,7 +6084,7 @@
       <c r="J17" s="22" t="s">
         <v>1071</v>
       </c>
-      <c r="K17" s="60" t="s">
+      <c r="K17" s="41" t="s">
         <v>1024</v>
       </c>
       <c r="L17" s="22" t="s">
@@ -6195,7 +6189,7 @@
       <c r="J18" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="K18" s="59" t="s">
+      <c r="K18" s="42" t="s">
         <v>1024</v>
       </c>
       <c r="L18" s="7" t="s">
@@ -7942,7 +7936,7 @@
         <v>1023</v>
       </c>
       <c r="J36" s="7"/>
-      <c r="K36" s="59" t="s">
+      <c r="K36" s="42" t="s">
         <v>1023</v>
       </c>
       <c r="L36" s="7" t="s">
@@ -8578,7 +8572,7 @@
       <c r="J43" s="7" t="s">
         <v>497</v>
       </c>
-      <c r="K43" s="59" t="s">
+      <c r="K43" s="42" t="s">
         <v>1024</v>
       </c>
       <c r="L43" s="7" t="s">
@@ -8670,7 +8664,7 @@
       <c r="J44" s="7" t="s">
         <v>624</v>
       </c>
-      <c r="K44" s="59" t="s">
+      <c r="K44" s="42" t="s">
         <v>1023</v>
       </c>
       <c r="L44" s="7" t="s">
@@ -9642,7 +9636,7 @@
       <c r="J55" s="7" t="s">
         <v>607</v>
       </c>
-      <c r="K55" s="59" t="s">
+      <c r="K55" s="42" t="s">
         <v>1023</v>
       </c>
       <c r="L55" s="7" t="s">
@@ -10796,7 +10790,7 @@
       <c r="J68" s="22" t="s">
         <v>715</v>
       </c>
-      <c r="K68" s="60" t="s">
+      <c r="K68" s="41" t="s">
         <v>1024</v>
       </c>
       <c r="L68" s="22" t="s">
@@ -12419,7 +12413,7 @@
       <c r="J86" s="7" t="s">
         <v>371</v>
       </c>
-      <c r="K86" s="59" t="s">
+      <c r="K86" s="42" t="s">
         <v>1023</v>
       </c>
       <c r="L86" s="7" t="s">
@@ -12514,7 +12508,7 @@
       <c r="J87" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="K87" s="59" t="s">
+      <c r="K87" s="42" t="s">
         <v>1024</v>
       </c>
       <c r="L87" s="7" t="s">
@@ -12601,7 +12595,7 @@
       <c r="J88" s="22" t="s">
         <v>139</v>
       </c>
-      <c r="K88" s="60" t="s">
+      <c r="K88" s="41" t="s">
         <v>1024</v>
       </c>
       <c r="L88" s="22" t="s">
@@ -13352,7 +13346,7 @@
         <v>1187</v>
       </c>
       <c r="D97" s="55">
-        <v>33211</v>
+        <v>33209</v>
       </c>
       <c r="E97" s="55">
         <v>44306</v>
@@ -14149,7 +14143,7 @@
       <c r="J106" s="7" t="s">
         <v>513</v>
       </c>
-      <c r="K106" s="59" t="s">
+      <c r="K106" s="42" t="s">
         <v>1023</v>
       </c>
       <c r="L106" s="36" t="s">
@@ -14239,7 +14233,7 @@
         <v>691</v>
       </c>
       <c r="D107" s="55">
-        <v>36526</v>
+        <v>36525</v>
       </c>
       <c r="E107" s="55" t="s">
         <v>1180</v>
@@ -14259,7 +14253,7 @@
       <c r="J107" s="7" t="s">
         <v>513</v>
       </c>
-      <c r="K107" s="59" t="s">
+      <c r="K107" s="42" t="s">
         <v>1023</v>
       </c>
       <c r="L107" s="7" t="s">

--- a/Autocoup.xlsx
+++ b/Autocoup.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10609"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10908"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/qingengdu/GitHub/Datasets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37A51962-46D7-9A42-9CB8-EF6EE0C837A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39268851-95AF-8348-B908-2B4A4869A00C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28800" yWindow="1180" windowWidth="38400" windowHeight="21100" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Autocoup" sheetId="6" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="1225">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4256" uniqueCount="1238">
   <si>
     <t>ccode</t>
   </si>
@@ -3718,13 +3718,52 @@
     <t>CCP &amp; Head of state; Baturo</t>
   </si>
   <si>
-    <t>Stepped down and pass power to nephew</t>
-  </si>
-  <si>
     <t>Cancelling elections</t>
   </si>
   <si>
     <t>Reassigning power role</t>
+  </si>
+  <si>
+    <t>War</t>
+  </si>
+  <si>
+    <t>revolution</t>
+  </si>
+  <si>
+    <t>forced to resign</t>
+  </si>
+  <si>
+    <t>Forced to resign</t>
+  </si>
+  <si>
+    <t>Revolution</t>
+  </si>
+  <si>
+    <t>rebel</t>
+  </si>
+  <si>
+    <t>step down</t>
+  </si>
+  <si>
+    <t>killed in  insurrection</t>
+  </si>
+  <si>
+    <t>succeeded relative</t>
+  </si>
+  <si>
+    <t>succeed</t>
+  </si>
+  <si>
+    <t>independence</t>
+  </si>
+  <si>
+    <t>stepp down under pressure</t>
+  </si>
+  <si>
+    <t>Stepp down and pass power to nephew</t>
+  </si>
+  <si>
+    <t>stepp dwon under pressure</t>
   </si>
 </sst>
 </file>
@@ -3883,7 +3922,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="61">
+  <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -4043,12 +4082,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -4539,13 +4572,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4DAD0BB-82E0-7A47-A291-AB504D7E4D73}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:AO111"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D80" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="G2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A90" sqref="A90:XFD90"/>
+      <selection pane="bottomRight" activeCell="J105" sqref="J105"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16"/>
@@ -4557,7 +4591,7 @@
     <col min="5" max="5" width="10.83203125" style="57" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15.83203125" style="9" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="16.5" style="9" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.5" style="9" customWidth="1"/>
+    <col min="8" max="8" width="25.6640625" style="9" customWidth="1"/>
     <col min="9" max="9" width="14.83203125" style="9" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="16.6640625" style="10" customWidth="1"/>
     <col min="11" max="11" width="12" style="10" bestFit="1" customWidth="1"/>
@@ -4737,13 +4771,13 @@
         <v>2010</v>
       </c>
       <c r="H2" s="6" t="s">
-        <v>67</v>
+        <v>1100</v>
       </c>
       <c r="I2" s="6" t="s">
         <v>1023</v>
       </c>
       <c r="J2" s="7" t="s">
-        <v>1127</v>
+        <v>1230</v>
       </c>
       <c r="K2" s="7" t="s">
         <v>1023</v>
@@ -4783,7 +4817,7 @@
       <c r="AN2" s="6"/>
       <c r="AO2" s="6"/>
     </row>
-    <row r="3" spans="1:41" s="16" customFormat="1" ht="17">
+    <row r="3" spans="1:41" s="16" customFormat="1" ht="17" hidden="1">
       <c r="A3" s="6">
         <v>703</v>
       </c>
@@ -4806,15 +4840,15 @@
         <v>2000</v>
       </c>
       <c r="H3" s="6" t="s">
-        <v>449</v>
+        <v>213</v>
       </c>
       <c r="I3" s="6" t="s">
         <v>1023</v>
       </c>
       <c r="J3" s="7" t="s">
-        <v>641</v>
-      </c>
-      <c r="K3" s="59" t="s">
+        <v>1225</v>
+      </c>
+      <c r="K3" s="42" t="s">
         <v>1024</v>
       </c>
       <c r="L3" s="7" t="s">
@@ -4886,7 +4920,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:41" s="16" customFormat="1" ht="17">
+    <row r="4" spans="1:41" s="16" customFormat="1" ht="17" hidden="1">
       <c r="A4" s="6">
         <v>625</v>
       </c>
@@ -4993,7 +5027,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:41" s="6" customFormat="1" ht="17">
+    <row r="5" spans="1:41" s="6" customFormat="1" ht="17" hidden="1">
       <c r="A5" s="6">
         <v>438</v>
       </c>
@@ -5016,7 +5050,7 @@
         <v>2020</v>
       </c>
       <c r="H5" s="6" t="s">
-        <v>67</v>
+        <v>1100</v>
       </c>
       <c r="I5" s="6" t="s">
         <v>1023</v>
@@ -5037,7 +5071,7 @@
         <v>950</v>
       </c>
     </row>
-    <row r="6" spans="1:41" s="6" customFormat="1" ht="34">
+    <row r="6" spans="1:41" s="6" customFormat="1" ht="17" hidden="1">
       <c r="A6" s="6">
         <v>500</v>
       </c>
@@ -5066,7 +5100,7 @@
         <v>1024</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>354</v>
+        <v>1229</v>
       </c>
       <c r="K6" s="7" t="s">
         <v>1024</v>
@@ -5132,7 +5166,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:41" s="21" customFormat="1" ht="17">
+    <row r="7" spans="1:41" s="21" customFormat="1" ht="17" hidden="1">
       <c r="A7" s="6">
         <v>93</v>
       </c>
@@ -5237,7 +5271,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:41" s="21" customFormat="1" ht="17">
+    <row r="8" spans="1:41" s="21" customFormat="1" ht="17" hidden="1">
       <c r="A8" s="6">
         <v>581</v>
       </c>
@@ -5260,7 +5294,7 @@
         <v>2019</v>
       </c>
       <c r="H8" s="6" t="s">
-        <v>67</v>
+        <v>1100</v>
       </c>
       <c r="I8" s="6" t="s">
         <v>1023</v>
@@ -5306,7 +5340,7 @@
       <c r="AN8" s="6"/>
       <c r="AO8" s="6"/>
     </row>
-    <row r="9" spans="1:41" s="6" customFormat="1" ht="17">
+    <row r="9" spans="1:41" s="6" customFormat="1" ht="17" hidden="1">
       <c r="A9" s="6">
         <v>553</v>
       </c>
@@ -5334,7 +5368,9 @@
       <c r="I9" s="6" t="s">
         <v>1023</v>
       </c>
-      <c r="J9" s="7"/>
+      <c r="J9" s="7" t="s">
+        <v>765</v>
+      </c>
       <c r="K9" s="7" t="s">
         <v>1023</v>
       </c>
@@ -5348,7 +5384,7 @@
       <c r="AG9" s="8"/>
       <c r="AH9" s="8"/>
     </row>
-    <row r="10" spans="1:41" s="21" customFormat="1" ht="34">
+    <row r="10" spans="1:41" s="21" customFormat="1" ht="17" hidden="1">
       <c r="A10" s="21">
         <v>145</v>
       </c>
@@ -5374,7 +5410,7 @@
         <v>1024</v>
       </c>
       <c r="J10" s="22" t="s">
-        <v>1073</v>
+        <v>138</v>
       </c>
       <c r="K10" s="22" t="s">
         <v>1024</v>
@@ -5446,7 +5482,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:41" ht="34">
+    <row r="11" spans="1:41" ht="17" hidden="1">
       <c r="A11" s="6">
         <v>616</v>
       </c>
@@ -5469,15 +5505,15 @@
         <v>2002</v>
       </c>
       <c r="H11" s="6" t="s">
-        <v>677</v>
+        <v>138</v>
       </c>
       <c r="I11" s="6" t="s">
         <v>1024</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>678</v>
-      </c>
-      <c r="K11" s="59" t="s">
+        <v>1225</v>
+      </c>
+      <c r="K11" s="42" t="s">
         <v>1024</v>
       </c>
       <c r="L11" s="7" t="s">
@@ -5543,7 +5579,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:41" ht="17">
+    <row r="12" spans="1:41" ht="17" hidden="1">
       <c r="A12" s="6">
         <v>471</v>
       </c>
@@ -5574,7 +5610,7 @@
       <c r="J12" s="7" t="s">
         <v>513</v>
       </c>
-      <c r="K12" s="59" t="s">
+      <c r="K12" s="42" t="s">
         <v>1023</v>
       </c>
       <c r="L12" s="36" t="s">
@@ -5644,7 +5680,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:41" s="21" customFormat="1" ht="17">
+    <row r="13" spans="1:41" s="21" customFormat="1" ht="17" hidden="1">
       <c r="A13" s="6">
         <v>482</v>
       </c>
@@ -5675,7 +5711,7 @@
       <c r="J13" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="K13" s="59" t="s">
+      <c r="K13" s="42" t="s">
         <v>1024</v>
       </c>
       <c r="L13" s="7" t="s">
@@ -5751,7 +5787,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:41" ht="17">
+    <row r="14" spans="1:41" ht="17" hidden="1">
       <c r="A14" s="6">
         <v>481</v>
       </c>
@@ -5774,7 +5810,7 @@
         <v>2002</v>
       </c>
       <c r="H14" s="6" t="s">
-        <v>72</v>
+        <v>426</v>
       </c>
       <c r="I14" s="6" t="s">
         <v>1023</v>
@@ -5782,7 +5818,7 @@
       <c r="J14" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="K14" s="59" t="s">
+      <c r="K14" s="42" t="s">
         <v>1023</v>
       </c>
       <c r="L14" s="36" t="s">
@@ -5860,7 +5896,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:41" ht="17">
+    <row r="15" spans="1:41" ht="17" hidden="1">
       <c r="A15" s="6">
         <v>616</v>
       </c>
@@ -5888,10 +5924,10 @@
       <c r="I15" s="6" t="s">
         <v>1023</v>
       </c>
-      <c r="J15" s="59" t="s">
+      <c r="J15" s="42" t="s">
         <v>138</v>
       </c>
-      <c r="K15" s="59" t="s">
+      <c r="K15" s="42" t="s">
         <v>1024</v>
       </c>
       <c r="L15" s="7" t="s">
@@ -5957,7 +5993,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:41" s="6" customFormat="1" ht="51">
+    <row r="16" spans="1:41" s="6" customFormat="1" ht="17" hidden="1">
       <c r="A16" s="6">
         <v>615</v>
       </c>
@@ -5980,15 +6016,15 @@
         <v>2008</v>
       </c>
       <c r="H16" s="6" t="s">
-        <v>67</v>
+        <v>1100</v>
       </c>
       <c r="I16" s="6" t="s">
         <v>1023</v>
       </c>
-      <c r="J16" s="59" t="s">
-        <v>701</v>
-      </c>
-      <c r="K16" s="59" t="s">
+      <c r="J16" s="42" t="s">
+        <v>1226</v>
+      </c>
+      <c r="K16" s="42" t="s">
         <v>1024</v>
       </c>
       <c r="L16" s="36" t="s">
@@ -6043,7 +6079,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:41" s="6" customFormat="1" ht="17">
+    <row r="17" spans="1:41" s="6" customFormat="1" ht="17" hidden="1">
       <c r="A17" s="6">
         <v>439</v>
       </c>
@@ -6074,7 +6110,7 @@
       <c r="J17" s="7" t="s">
         <v>138</v>
       </c>
-      <c r="K17" s="59" t="s">
+      <c r="K17" s="42" t="s">
         <v>1024</v>
       </c>
       <c r="L17" s="36" t="s">
@@ -6141,7 +6177,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:41" s="6" customFormat="1" ht="34">
+    <row r="18" spans="1:41" s="6" customFormat="1" ht="17">
       <c r="A18" s="21">
         <v>150</v>
       </c>
@@ -6162,15 +6198,15 @@
       </c>
       <c r="G18" s="21"/>
       <c r="H18" s="21" t="s">
-        <v>67</v>
+        <v>1100</v>
       </c>
       <c r="I18" s="31" t="s">
         <v>1023</v>
       </c>
       <c r="J18" s="22" t="s">
-        <v>607</v>
-      </c>
-      <c r="K18" s="60" t="s">
+        <v>1230</v>
+      </c>
+      <c r="K18" s="41" t="s">
         <v>1023</v>
       </c>
       <c r="L18" s="22" t="s">
@@ -6210,7 +6246,7 @@
       <c r="AN18" s="21"/>
       <c r="AO18" s="21"/>
     </row>
-    <row r="19" spans="1:41" s="6" customFormat="1" ht="17">
+    <row r="19" spans="1:41" s="6" customFormat="1" ht="17" hidden="1">
       <c r="A19" s="6">
         <v>101</v>
       </c>
@@ -6233,7 +6269,7 @@
         <v>2009</v>
       </c>
       <c r="H19" s="6" t="s">
-        <v>67</v>
+        <v>1100</v>
       </c>
       <c r="I19" s="6" t="s">
         <v>1023</v>
@@ -6305,7 +6341,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:41" ht="34">
+    <row r="20" spans="1:41" ht="17">
       <c r="A20" s="21">
         <v>551</v>
       </c>
@@ -6326,13 +6362,13 @@
       </c>
       <c r="G20" s="21"/>
       <c r="H20" s="21" t="s">
-        <v>67</v>
+        <v>1100</v>
       </c>
       <c r="I20" s="31" t="s">
         <v>1023</v>
       </c>
       <c r="J20" s="22" t="s">
-        <v>607</v>
+        <v>1230</v>
       </c>
       <c r="K20" s="22" t="s">
         <v>1023</v>
@@ -6400,7 +6436,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:41" s="21" customFormat="1" ht="17">
+    <row r="21" spans="1:41" s="21" customFormat="1" ht="17" hidden="1">
       <c r="A21" s="6">
         <v>438</v>
       </c>
@@ -6507,7 +6543,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:41" ht="34">
+    <row r="22" spans="1:41" ht="17">
       <c r="A22" s="6">
         <v>130</v>
       </c>
@@ -6530,13 +6566,13 @@
         <v>2015</v>
       </c>
       <c r="H22" s="6" t="s">
-        <v>67</v>
+        <v>1100</v>
       </c>
       <c r="I22" s="6" t="s">
         <v>1023</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>607</v>
+        <v>1230</v>
       </c>
       <c r="K22" s="7" t="s">
         <v>1023</v>
@@ -6604,7 +6640,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:41" ht="17">
+    <row r="23" spans="1:41" ht="17" hidden="1">
       <c r="A23" s="21">
         <v>482</v>
       </c>
@@ -6631,7 +6667,7 @@
         <v>1023</v>
       </c>
       <c r="J23" s="22" t="s">
-        <v>1071</v>
+        <v>45</v>
       </c>
       <c r="K23" s="22" t="s">
         <v>1024</v>
@@ -6707,7 +6743,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:41" s="6" customFormat="1" ht="17">
+    <row r="24" spans="1:41" s="6" customFormat="1" ht="17" hidden="1">
       <c r="A24" s="6">
         <v>93</v>
       </c>
@@ -6730,7 +6766,7 @@
         <v>2014</v>
       </c>
       <c r="H24" s="6" t="s">
-        <v>67</v>
+        <v>1100</v>
       </c>
       <c r="I24" s="6" t="s">
         <v>1023</v>
@@ -6793,7 +6829,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:41" ht="34">
+    <row r="25" spans="1:41" ht="17">
       <c r="A25" s="6">
         <v>42</v>
       </c>
@@ -6816,13 +6852,13 @@
         <v>2015</v>
       </c>
       <c r="H25" s="6" t="s">
-        <v>67</v>
+        <v>1100</v>
       </c>
       <c r="I25" s="6" t="s">
         <v>1023</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>607</v>
+        <v>1230</v>
       </c>
       <c r="K25" s="7" t="s">
         <v>1023</v>
@@ -6890,7 +6926,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:41" s="21" customFormat="1" ht="17">
+    <row r="26" spans="1:41" s="21" customFormat="1" ht="17" hidden="1">
       <c r="A26" s="6">
         <v>484</v>
       </c>
@@ -6997,7 +7033,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:41" ht="17">
+    <row r="27" spans="1:41" ht="17" hidden="1">
       <c r="A27" s="6">
         <v>540</v>
       </c>
@@ -7020,7 +7056,7 @@
         <v>1992</v>
       </c>
       <c r="H27" s="6" t="s">
-        <v>67</v>
+        <v>1100</v>
       </c>
       <c r="I27" s="6" t="s">
         <v>1023</v>
@@ -7032,7 +7068,7 @@
         <v>1023</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>1223</v>
+        <v>1222</v>
       </c>
       <c r="M27" s="7" t="s">
         <v>1201</v>
@@ -7092,7 +7128,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:41" s="21" customFormat="1" ht="51">
+    <row r="28" spans="1:41" s="21" customFormat="1" ht="17" hidden="1">
       <c r="A28" s="6">
         <v>660</v>
       </c>
@@ -7115,13 +7151,13 @@
         <v>1948</v>
       </c>
       <c r="H28" s="6" t="s">
-        <v>67</v>
+        <v>1100</v>
       </c>
       <c r="I28" s="6" t="s">
         <v>1023</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>68</v>
+        <v>1227</v>
       </c>
       <c r="K28" s="7" t="s">
         <v>1024</v>
@@ -7206,13 +7242,13 @@
         <v>1995</v>
       </c>
       <c r="H29" s="6" t="s">
-        <v>604</v>
+        <v>426</v>
       </c>
       <c r="I29" s="6" t="s">
         <v>1023</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>91</v>
+        <v>1230</v>
       </c>
       <c r="K29" s="7" t="s">
         <v>1023</v>
@@ -7263,7 +7299,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:41" s="25" customFormat="1" ht="34">
+    <row r="30" spans="1:41" s="25" customFormat="1" ht="17">
       <c r="A30" s="21">
         <v>553</v>
       </c>
@@ -7290,7 +7326,7 @@
         <v>1023</v>
       </c>
       <c r="J30" s="22" t="s">
-        <v>607</v>
+        <v>1230</v>
       </c>
       <c r="K30" s="22" t="s">
         <v>1023</v>
@@ -7355,13 +7391,13 @@
         <v>2004</v>
       </c>
       <c r="H31" s="6" t="s">
-        <v>67</v>
+        <v>1100</v>
       </c>
       <c r="I31" s="6" t="s">
         <v>1023</v>
       </c>
-      <c r="J31" s="7" t="s">
-        <v>91</v>
+      <c r="J31" s="36" t="s">
+        <v>1230</v>
       </c>
       <c r="K31" s="7" t="s">
         <v>1023</v>
@@ -7401,7 +7437,7 @@
       <c r="AN31" s="6"/>
       <c r="AO31" s="6"/>
     </row>
-    <row r="32" spans="1:41" s="21" customFormat="1" ht="17">
+    <row r="32" spans="1:41" s="21" customFormat="1" ht="17" hidden="1">
       <c r="A32" s="6">
         <v>461</v>
       </c>
@@ -7430,7 +7466,7 @@
         <v>1024</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>242</v>
+        <v>82</v>
       </c>
       <c r="K32" s="7" t="s">
         <v>1023</v>
@@ -7510,7 +7546,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:41" ht="17">
+    <row r="33" spans="1:41" ht="17" hidden="1">
       <c r="A33" s="6">
         <v>41</v>
       </c>
@@ -7533,7 +7569,7 @@
         <v>1964</v>
       </c>
       <c r="H33" s="6" t="s">
-        <v>67</v>
+        <v>1100</v>
       </c>
       <c r="I33" s="6" t="s">
         <v>1023</v>
@@ -7621,7 +7657,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:41" ht="34">
+    <row r="34" spans="1:41" ht="17">
       <c r="A34" s="6">
         <v>140</v>
       </c>
@@ -7644,13 +7680,13 @@
         <v>1999</v>
       </c>
       <c r="H34" s="6" t="s">
-        <v>67</v>
+        <v>1100</v>
       </c>
       <c r="I34" s="6" t="s">
         <v>1023</v>
       </c>
-      <c r="J34" s="7" t="s">
-        <v>607</v>
+      <c r="J34" s="36" t="s">
+        <v>1230</v>
       </c>
       <c r="K34" s="7" t="s">
         <v>1023</v>
@@ -7692,7 +7728,7 @@
       <c r="AN34" s="6"/>
       <c r="AO34" s="6"/>
     </row>
-    <row r="35" spans="1:41" ht="17">
+    <row r="35" spans="1:41" ht="17" hidden="1">
       <c r="A35" s="6">
         <v>483</v>
       </c>
@@ -7721,7 +7757,7 @@
         <v>1023</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>1130</v>
+        <v>138</v>
       </c>
       <c r="K35" s="7" t="s">
         <v>1024</v>
@@ -7761,7 +7797,7 @@
       <c r="AN35" s="6"/>
       <c r="AO35" s="6"/>
     </row>
-    <row r="36" spans="1:41" ht="17">
+    <row r="36" spans="1:41" ht="17" hidden="1">
       <c r="A36" s="6">
         <v>135</v>
       </c>
@@ -7784,7 +7820,7 @@
         <v>2000</v>
       </c>
       <c r="H36" s="6" t="s">
-        <v>67</v>
+        <v>1100</v>
       </c>
       <c r="I36" s="6" t="s">
         <v>1023</v>
@@ -7792,7 +7828,7 @@
       <c r="J36" s="7" t="s">
         <v>138</v>
       </c>
-      <c r="K36" s="59" t="s">
+      <c r="K36" s="42" t="s">
         <v>1024</v>
       </c>
       <c r="L36" s="7" t="s">
@@ -7902,8 +7938,8 @@
       <c r="I37" s="6" t="s">
         <v>1024</v>
       </c>
-      <c r="J37" s="7" t="s">
-        <v>1127</v>
+      <c r="J37" s="36" t="s">
+        <v>1230</v>
       </c>
       <c r="K37" s="7" t="s">
         <v>1023</v>
@@ -7943,7 +7979,7 @@
       <c r="AN37" s="6"/>
       <c r="AO37" s="6"/>
     </row>
-    <row r="38" spans="1:41" ht="17">
+    <row r="38" spans="1:41" ht="17" hidden="1">
       <c r="A38" s="6">
         <v>437</v>
       </c>
@@ -7972,7 +8008,7 @@
         <v>1023</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>666</v>
+        <v>390</v>
       </c>
       <c r="K38" s="7" t="s">
         <v>1024</v>
@@ -8046,7 +8082,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:41" ht="51">
+    <row r="39" spans="1:41" ht="34" hidden="1">
       <c r="A39" s="21">
         <v>145</v>
       </c>
@@ -8073,7 +8109,7 @@
         <v>1024</v>
       </c>
       <c r="J39" s="22" t="s">
-        <v>46</v>
+        <v>1231</v>
       </c>
       <c r="K39" s="22" t="s">
         <v>1024</v>
@@ -8139,7 +8175,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:41" ht="17">
+    <row r="40" spans="1:41" ht="17" hidden="1">
       <c r="A40" s="6">
         <v>522</v>
       </c>
@@ -8162,7 +8198,7 @@
         <v>2010</v>
       </c>
       <c r="H40" s="6" t="s">
-        <v>722</v>
+        <v>1232</v>
       </c>
       <c r="I40" s="6" t="s">
         <v>1023</v>
@@ -8238,7 +8274,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:41" ht="17">
+    <row r="41" spans="1:41" ht="17" hidden="1">
       <c r="A41" s="6">
         <v>373</v>
       </c>
@@ -8261,7 +8297,7 @@
         <v>2002</v>
       </c>
       <c r="H41" s="6" t="s">
-        <v>590</v>
+        <v>213</v>
       </c>
       <c r="I41" s="6" t="s">
         <v>1023</v>
@@ -8343,7 +8379,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:41" s="6" customFormat="1" ht="34">
+    <row r="42" spans="1:41" s="6" customFormat="1" ht="34" hidden="1">
       <c r="A42" s="6">
         <v>517</v>
       </c>
@@ -8372,7 +8408,7 @@
         <v>1024</v>
       </c>
       <c r="J42" s="7" t="s">
-        <v>982</v>
+        <v>82</v>
       </c>
       <c r="K42" s="7" t="s">
         <v>1024</v>
@@ -8438,7 +8474,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:41" s="6" customFormat="1" ht="17">
+    <row r="43" spans="1:41" s="6" customFormat="1" ht="17" hidden="1">
       <c r="A43" s="6">
         <v>522</v>
       </c>
@@ -8461,7 +8497,7 @@
         <v>1982</v>
       </c>
       <c r="H43" s="6" t="s">
-        <v>983</v>
+        <v>213</v>
       </c>
       <c r="I43" s="6" t="s">
         <v>1023</v>
@@ -8469,7 +8505,7 @@
       <c r="J43" s="7" t="s">
         <v>371</v>
       </c>
-      <c r="K43" s="59" t="s">
+      <c r="K43" s="42" t="s">
         <v>1023</v>
       </c>
       <c r="L43" s="7" t="s">
@@ -8482,7 +8518,7 @@
       <c r="AG43" s="8"/>
       <c r="AH43" s="8"/>
     </row>
-    <row r="44" spans="1:41" s="6" customFormat="1" ht="17">
+    <row r="44" spans="1:41" s="6" customFormat="1" ht="17" hidden="1">
       <c r="A44" s="6">
         <v>732</v>
       </c>
@@ -8511,9 +8547,9 @@
         <v>1024</v>
       </c>
       <c r="J44" s="7" t="s">
-        <v>318</v>
-      </c>
-      <c r="K44" s="59" t="s">
+        <v>57</v>
+      </c>
+      <c r="K44" s="42" t="s">
         <v>1024</v>
       </c>
       <c r="L44" s="7" t="s">
@@ -8580,7 +8616,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:41" ht="17">
+    <row r="45" spans="1:41" ht="17" hidden="1">
       <c r="A45" s="21">
         <v>150</v>
       </c>
@@ -8601,13 +8637,13 @@
       </c>
       <c r="G45" s="21"/>
       <c r="H45" s="21" t="s">
-        <v>72</v>
+        <v>426</v>
       </c>
       <c r="I45" s="21" t="s">
         <v>1023</v>
       </c>
       <c r="J45" s="22" t="s">
-        <v>73</v>
+        <v>138</v>
       </c>
       <c r="K45" s="22" t="s">
         <v>1024</v>
@@ -8673,7 +8709,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:41" s="6" customFormat="1" ht="17">
+    <row r="46" spans="1:41" s="6" customFormat="1" ht="17" hidden="1">
       <c r="A46" s="6">
         <v>811</v>
       </c>
@@ -8753,7 +8789,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:41" s="6" customFormat="1" ht="17">
+    <row r="47" spans="1:41" s="6" customFormat="1" ht="17" hidden="1">
       <c r="A47" s="6">
         <v>483</v>
       </c>
@@ -8848,7 +8884,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:41" ht="34">
+    <row r="48" spans="1:41" ht="34" hidden="1">
       <c r="A48" s="6">
         <v>373</v>
       </c>
@@ -8871,7 +8907,7 @@
         <v>2016</v>
       </c>
       <c r="H48" s="6" t="s">
-        <v>263</v>
+        <v>1232</v>
       </c>
       <c r="I48" s="6" t="s">
         <v>1023</v>
@@ -8953,7 +8989,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:41" ht="17">
+    <row r="49" spans="1:41" ht="17" hidden="1">
       <c r="A49" s="6">
         <v>531</v>
       </c>
@@ -8988,7 +9024,7 @@
         <v>1023</v>
       </c>
       <c r="L49" s="7" t="s">
-        <v>1223</v>
+        <v>1222</v>
       </c>
       <c r="M49" s="7" t="s">
         <v>1201</v>
@@ -9024,7 +9060,7 @@
       <c r="AN49" s="6"/>
       <c r="AO49" s="6"/>
     </row>
-    <row r="50" spans="1:41" ht="34">
+    <row r="50" spans="1:41" ht="17">
       <c r="A50" s="6">
         <v>490</v>
       </c>
@@ -9047,13 +9083,13 @@
         <v>2016</v>
       </c>
       <c r="H50" s="6" t="s">
-        <v>263</v>
+        <v>1232</v>
       </c>
       <c r="I50" s="6" t="s">
         <v>1023</v>
       </c>
-      <c r="J50" s="7" t="s">
-        <v>681</v>
+      <c r="J50" s="36" t="s">
+        <v>1230</v>
       </c>
       <c r="K50" s="7" t="s">
         <v>1023</v>
@@ -9129,7 +9165,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:41" s="6" customFormat="1" ht="17">
+    <row r="51" spans="1:41" s="6" customFormat="1" ht="17" hidden="1">
       <c r="A51" s="21">
         <v>553</v>
       </c>
@@ -9150,7 +9186,7 @@
       </c>
       <c r="G51" s="21"/>
       <c r="H51" s="21" t="s">
-        <v>764</v>
+        <v>1233</v>
       </c>
       <c r="I51" s="31" t="s">
         <v>1023</v>
@@ -9196,7 +9232,7 @@
       <c r="AN51" s="21"/>
       <c r="AO51" s="21"/>
     </row>
-    <row r="52" spans="1:41" s="6" customFormat="1" ht="34">
+    <row r="52" spans="1:41" s="6" customFormat="1" ht="34" hidden="1">
       <c r="A52" s="6">
         <v>91</v>
       </c>
@@ -9219,7 +9255,7 @@
         <v>2015</v>
       </c>
       <c r="H52" s="6" t="s">
-        <v>67</v>
+        <v>1100</v>
       </c>
       <c r="I52" s="6" t="s">
         <v>1023</v>
@@ -9276,7 +9312,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:41" s="6" customFormat="1" ht="17">
+    <row r="53" spans="1:41" s="6" customFormat="1" ht="17" hidden="1">
       <c r="A53" s="6">
         <v>160</v>
       </c>
@@ -9299,13 +9335,13 @@
         <v>1951</v>
       </c>
       <c r="H53" s="6" t="s">
-        <v>67</v>
+        <v>1100</v>
       </c>
       <c r="I53" s="6" t="s">
         <v>1023</v>
       </c>
       <c r="J53" s="7" t="s">
-        <v>73</v>
+        <v>138</v>
       </c>
       <c r="K53" s="7" t="s">
         <v>1024</v>
@@ -9365,7 +9401,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:41" s="21" customFormat="1" ht="17">
+    <row r="54" spans="1:41" s="21" customFormat="1" ht="17" hidden="1">
       <c r="A54" s="6">
         <v>704</v>
       </c>
@@ -9472,7 +9508,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:41" ht="51">
+    <row r="55" spans="1:41" ht="17" hidden="1">
       <c r="A55" s="21">
         <v>517</v>
       </c>
@@ -9499,9 +9535,9 @@
         <v>1023</v>
       </c>
       <c r="J55" s="22" t="s">
-        <v>1072</v>
-      </c>
-      <c r="K55" s="60" t="s">
+        <v>45</v>
+      </c>
+      <c r="K55" s="41" t="s">
         <v>1024</v>
       </c>
       <c r="L55" s="22" t="s">
@@ -9563,7 +9599,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:41" ht="17">
+    <row r="56" spans="1:41" ht="17" hidden="1">
       <c r="A56" s="6">
         <v>434</v>
       </c>
@@ -9666,7 +9702,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:41" ht="17">
+    <row r="57" spans="1:41" ht="17" hidden="1">
       <c r="A57" s="6">
         <v>652</v>
       </c>
@@ -9737,7 +9773,7 @@
       <c r="AN57" s="6"/>
       <c r="AO57" s="6"/>
     </row>
-    <row r="58" spans="1:41" ht="34">
+    <row r="58" spans="1:41" ht="17">
       <c r="A58" s="6">
         <v>93</v>
       </c>
@@ -9759,14 +9795,14 @@
       <c r="G58" s="6">
         <v>1963</v>
       </c>
-      <c r="H58" s="6" t="s">
-        <v>263</v>
+      <c r="H58" s="33" t="s">
+        <v>1232</v>
       </c>
       <c r="I58" s="6" t="s">
         <v>1023</v>
       </c>
-      <c r="J58" s="7" t="s">
-        <v>264</v>
+      <c r="J58" s="36" t="s">
+        <v>1230</v>
       </c>
       <c r="K58" s="7" t="s">
         <v>1023</v>
@@ -9838,7 +9874,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:41" ht="17">
+    <row r="59" spans="1:41" ht="17" hidden="1">
       <c r="A59" s="6">
         <v>370</v>
       </c>
@@ -9861,7 +9897,7 @@
         <v>2004</v>
       </c>
       <c r="H59" s="6" t="s">
-        <v>449</v>
+        <v>213</v>
       </c>
       <c r="I59" s="6" t="s">
         <v>1023</v>
@@ -9953,7 +9989,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:41" ht="17">
+    <row r="60" spans="1:41" ht="17" hidden="1">
       <c r="A60" s="6">
         <v>411</v>
       </c>
@@ -10056,7 +10092,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:41" ht="34">
+    <row r="61" spans="1:41" ht="34" hidden="1">
       <c r="A61" s="21">
         <v>436</v>
       </c>
@@ -10083,7 +10119,7 @@
         <v>1023</v>
       </c>
       <c r="J61" s="22" t="s">
-        <v>715</v>
+        <v>138</v>
       </c>
       <c r="K61" s="22" t="s">
         <v>1024</v>
@@ -10153,7 +10189,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:41" ht="34">
+    <row r="62" spans="1:41" ht="34" hidden="1">
       <c r="A62" s="21">
         <v>145</v>
       </c>
@@ -10174,7 +10210,7 @@
       </c>
       <c r="G62" s="21"/>
       <c r="H62" s="21" t="s">
-        <v>107</v>
+        <v>426</v>
       </c>
       <c r="I62" s="21" t="s">
         <v>1023</v>
@@ -10248,7 +10284,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:41" s="6" customFormat="1" ht="17">
+    <row r="63" spans="1:41" s="6" customFormat="1" ht="17" hidden="1">
       <c r="A63" s="21">
         <v>91</v>
       </c>
@@ -10275,7 +10311,7 @@
         <v>1023</v>
       </c>
       <c r="J63" s="22" t="s">
-        <v>73</v>
+        <v>138</v>
       </c>
       <c r="K63" s="22" t="s">
         <v>1024</v>
@@ -10317,7 +10353,7 @@
       <c r="AN63" s="21"/>
       <c r="AO63" s="21"/>
     </row>
-    <row r="64" spans="1:41" ht="34">
+    <row r="64" spans="1:41" ht="17" hidden="1">
       <c r="A64" s="6">
         <v>840</v>
       </c>
@@ -10340,13 +10376,13 @@
         <v>1976</v>
       </c>
       <c r="H64" s="6" t="s">
-        <v>67</v>
+        <v>1100</v>
       </c>
       <c r="I64" s="6" t="s">
         <v>1023</v>
       </c>
       <c r="J64" s="7" t="s">
-        <v>333</v>
+        <v>1228</v>
       </c>
       <c r="K64" s="7" t="s">
         <v>1024</v>
@@ -10428,7 +10464,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:41" s="6" customFormat="1" ht="34">
+    <row r="65" spans="1:41" s="6" customFormat="1" ht="34" hidden="1">
       <c r="A65" s="6">
         <v>101</v>
       </c>
@@ -10451,13 +10487,13 @@
         <v>1957</v>
       </c>
       <c r="H65" s="6" t="s">
-        <v>125</v>
+        <v>45</v>
       </c>
       <c r="I65" s="6" t="s">
         <v>1024</v>
       </c>
       <c r="J65" s="7" t="s">
-        <v>73</v>
+        <v>138</v>
       </c>
       <c r="K65" s="7" t="s">
         <v>1024</v>
@@ -10526,7 +10562,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:41" s="6" customFormat="1" ht="34">
+    <row r="66" spans="1:41" s="6" customFormat="1" ht="34" hidden="1">
       <c r="A66" s="6">
         <v>481</v>
       </c>
@@ -10615,7 +10651,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:41" s="6" customFormat="1" ht="17">
+    <row r="67" spans="1:41" s="6" customFormat="1" ht="17" hidden="1">
       <c r="A67" s="21">
         <v>42</v>
       </c>
@@ -10642,7 +10678,7 @@
         <v>1023</v>
       </c>
       <c r="J67" s="22" t="s">
-        <v>624</v>
+        <v>765</v>
       </c>
       <c r="K67" s="22" t="s">
         <v>1023</v>
@@ -10708,7 +10744,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:41" ht="17">
+    <row r="68" spans="1:41" ht="17" hidden="1">
       <c r="A68" s="6">
         <v>160</v>
       </c>
@@ -10731,7 +10767,7 @@
         <v>1993</v>
       </c>
       <c r="H68" s="6" t="s">
-        <v>67</v>
+        <v>1100</v>
       </c>
       <c r="I68" s="6" t="s">
         <v>1023</v>
@@ -10739,7 +10775,7 @@
       <c r="J68" s="7" t="s">
         <v>956</v>
       </c>
-      <c r="K68" s="59" t="s">
+      <c r="K68" s="42" t="s">
         <v>1023</v>
       </c>
       <c r="L68" s="7" t="s">
@@ -10805,7 +10841,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:41" ht="51">
+    <row r="69" spans="1:41" ht="51" hidden="1">
       <c r="A69" s="21">
         <v>345</v>
       </c>
@@ -10908,7 +10944,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:41" s="6" customFormat="1" ht="17">
+    <row r="70" spans="1:41" s="6" customFormat="1" ht="17" hidden="1">
       <c r="A70" s="6">
         <v>490</v>
       </c>
@@ -11003,7 +11039,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:41" s="6" customFormat="1" ht="34">
+    <row r="71" spans="1:41" s="6" customFormat="1" ht="17" hidden="1">
       <c r="A71" s="6">
         <v>145</v>
       </c>
@@ -11026,13 +11062,13 @@
         <v>2017</v>
       </c>
       <c r="H71" s="6" t="s">
-        <v>67</v>
+        <v>1100</v>
       </c>
       <c r="I71" s="6" t="s">
         <v>1023</v>
       </c>
       <c r="J71" s="7" t="s">
-        <v>632</v>
+        <v>1226</v>
       </c>
       <c r="K71" s="7" t="s">
         <v>1024</v>
@@ -11089,7 +11125,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:41" s="6" customFormat="1" ht="17">
+    <row r="72" spans="1:41" s="6" customFormat="1" ht="17" hidden="1">
       <c r="A72" s="6">
         <v>552</v>
       </c>
@@ -11112,7 +11148,7 @@
         <v>1987</v>
       </c>
       <c r="H72" s="6" t="s">
-        <v>67</v>
+        <v>1100</v>
       </c>
       <c r="I72" s="6" t="s">
         <v>1023</v>
@@ -11124,7 +11160,7 @@
         <v>1024</v>
       </c>
       <c r="L72" s="7" t="s">
-        <v>1224</v>
+        <v>1223</v>
       </c>
       <c r="M72" s="7" t="s">
         <v>1201</v>
@@ -11178,7 +11214,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:41" ht="17">
+    <row r="73" spans="1:41" ht="17" hidden="1">
       <c r="A73" s="6">
         <v>705</v>
       </c>
@@ -11207,7 +11243,7 @@
         <v>1023</v>
       </c>
       <c r="J73" s="7" t="s">
-        <v>116</v>
+        <v>1226</v>
       </c>
       <c r="K73" s="7" t="s">
         <v>1023</v>
@@ -11285,7 +11321,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="1:41" ht="17">
+    <row r="74" spans="1:41" ht="17" hidden="1">
       <c r="A74" s="6">
         <v>484</v>
       </c>
@@ -11308,19 +11344,19 @@
         <v>1970</v>
       </c>
       <c r="H74" s="6" t="s">
-        <v>317</v>
+        <v>665</v>
       </c>
       <c r="I74" s="6" t="s">
         <v>1023</v>
       </c>
       <c r="J74" s="7" t="s">
-        <v>318</v>
+        <v>57</v>
       </c>
       <c r="K74" s="7" t="s">
         <v>1024</v>
       </c>
       <c r="L74" s="7" t="s">
-        <v>1223</v>
+        <v>1222</v>
       </c>
       <c r="M74" s="7" t="s">
         <v>1201</v>
@@ -11382,7 +11418,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:41" ht="17">
+    <row r="75" spans="1:41" ht="17" hidden="1">
       <c r="A75" s="6">
         <v>701</v>
       </c>
@@ -11487,7 +11523,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="1:41" s="6" customFormat="1" ht="17">
+    <row r="76" spans="1:41" s="6" customFormat="1" ht="17" hidden="1">
       <c r="A76" s="6">
         <v>452</v>
       </c>
@@ -11510,13 +11546,13 @@
         <v>1964</v>
       </c>
       <c r="H76" s="6" t="s">
-        <v>936</v>
+        <v>1234</v>
       </c>
       <c r="I76" s="6" t="s">
         <v>1023</v>
       </c>
       <c r="J76" s="7" t="s">
-        <v>73</v>
+        <v>138</v>
       </c>
       <c r="K76" s="7" t="s">
         <v>1024</v>
@@ -11576,7 +11612,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:41" s="6" customFormat="1" ht="34">
+    <row r="77" spans="1:41" s="6" customFormat="1" ht="17">
       <c r="A77" s="6">
         <v>565</v>
       </c>
@@ -11604,8 +11640,8 @@
       <c r="I77" s="6" t="s">
         <v>1023</v>
       </c>
-      <c r="J77" s="7" t="s">
-        <v>649</v>
+      <c r="J77" s="36" t="s">
+        <v>1230</v>
       </c>
       <c r="K77" s="7" t="s">
         <v>1023</v>
@@ -11659,7 +11695,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="1:41" ht="34">
+    <row r="78" spans="1:41" ht="17">
       <c r="A78" s="21">
         <v>475</v>
       </c>
@@ -11686,7 +11722,7 @@
         <v>1023</v>
       </c>
       <c r="J78" s="22" t="s">
-        <v>607</v>
+        <v>1230</v>
       </c>
       <c r="K78" s="22" t="s">
         <v>1023</v>
@@ -11726,7 +11762,7 @@
       <c r="AN78" s="21"/>
       <c r="AO78" s="21"/>
     </row>
-    <row r="79" spans="1:41" s="6" customFormat="1" ht="17">
+    <row r="79" spans="1:41" s="6" customFormat="1" ht="17" hidden="1">
       <c r="A79" s="21">
         <v>165</v>
       </c>
@@ -11747,13 +11783,13 @@
       </c>
       <c r="G79" s="21"/>
       <c r="H79" s="21" t="s">
-        <v>72</v>
+        <v>426</v>
       </c>
       <c r="I79" s="31" t="s">
         <v>1023</v>
       </c>
       <c r="J79" s="22" t="s">
-        <v>67</v>
+        <v>765</v>
       </c>
       <c r="K79" s="22" t="s">
         <v>1023</v>
@@ -11823,7 +11859,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="1:41" s="6" customFormat="1" ht="17">
+    <row r="80" spans="1:41" s="6" customFormat="1" ht="17" hidden="1">
       <c r="A80" s="6">
         <v>517</v>
       </c>
@@ -11846,7 +11882,7 @@
         <v>2003</v>
       </c>
       <c r="H80" s="6" t="s">
-        <v>535</v>
+        <v>1224</v>
       </c>
       <c r="I80" s="6" t="s">
         <v>1024</v>
@@ -11903,7 +11939,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:41" s="6" customFormat="1" ht="68">
+    <row r="81" spans="1:41" s="6" customFormat="1" ht="68" hidden="1">
       <c r="A81" s="21">
         <v>41</v>
       </c>
@@ -11936,7 +11972,7 @@
         <v>1024</v>
       </c>
       <c r="L81" s="22" t="s">
-        <v>1224</v>
+        <v>1223</v>
       </c>
       <c r="M81" s="22" t="s">
         <v>1200</v>
@@ -12002,7 +12038,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:41" s="6" customFormat="1" ht="34">
+    <row r="82" spans="1:41" s="6" customFormat="1" ht="34" hidden="1">
       <c r="A82" s="21">
         <v>145</v>
       </c>
@@ -12029,7 +12065,7 @@
         <v>1023</v>
       </c>
       <c r="J82" s="22" t="s">
-        <v>1071</v>
+        <v>45</v>
       </c>
       <c r="K82" s="22" t="s">
         <v>1024</v>
@@ -12095,7 +12131,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:41" ht="34">
+    <row r="83" spans="1:41" ht="34" hidden="1">
       <c r="A83" s="6">
         <v>516</v>
       </c>
@@ -12117,8 +12153,8 @@
       <c r="G83" s="6">
         <v>2015</v>
       </c>
-      <c r="H83" s="6" t="s">
-        <v>729</v>
+      <c r="H83" s="33" t="s">
+        <v>1100</v>
       </c>
       <c r="I83" s="6" t="s">
         <v>1023</v>
@@ -12192,7 +12228,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="1:41" s="6" customFormat="1" ht="17">
+    <row r="84" spans="1:41" s="6" customFormat="1" ht="17" hidden="1">
       <c r="A84" s="6">
         <v>155</v>
       </c>
@@ -12220,8 +12256,8 @@
       <c r="I84" s="6" t="s">
         <v>1024</v>
       </c>
-      <c r="J84" s="7" t="s">
-        <v>624</v>
+      <c r="J84" s="36" t="s">
+        <v>765</v>
       </c>
       <c r="K84" s="7" t="s">
         <v>1023</v>
@@ -12284,7 +12320,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:41" s="6" customFormat="1" ht="17">
+    <row r="85" spans="1:41" s="6" customFormat="1" ht="17" hidden="1">
       <c r="A85" s="6">
         <v>365</v>
       </c>
@@ -12307,7 +12343,7 @@
         <v>2012</v>
       </c>
       <c r="H85" s="6" t="s">
-        <v>1006</v>
+        <v>426</v>
       </c>
       <c r="I85" s="6" t="s">
         <v>1023</v>
@@ -12385,7 +12421,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="86" spans="1:41" s="21" customFormat="1" ht="17">
+    <row r="86" spans="1:41" s="21" customFormat="1" ht="17" hidden="1">
       <c r="A86" s="6">
         <v>42</v>
       </c>
@@ -12407,8 +12443,8 @@
       <c r="G86" s="6">
         <v>1952</v>
       </c>
-      <c r="H86" s="6" t="s">
-        <v>67</v>
+      <c r="H86" s="33" t="s">
+        <v>1100</v>
       </c>
       <c r="I86" s="6" t="s">
         <v>1023</v>
@@ -12456,7 +12492,7 @@
       <c r="AN86" s="6"/>
       <c r="AO86" s="6"/>
     </row>
-    <row r="87" spans="1:41" s="6" customFormat="1" ht="17">
+    <row r="87" spans="1:41" s="6" customFormat="1" ht="17" hidden="1">
       <c r="A87" s="21">
         <v>780</v>
       </c>
@@ -12483,9 +12519,9 @@
         <v>1023</v>
       </c>
       <c r="J87" s="22" t="s">
-        <v>67</v>
-      </c>
-      <c r="K87" s="60" t="s">
+        <v>765</v>
+      </c>
+      <c r="K87" s="41" t="s">
         <v>1023</v>
       </c>
       <c r="L87" s="22" t="s">
@@ -12549,7 +12585,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="88" spans="1:41" ht="17">
+    <row r="88" spans="1:41" ht="17" hidden="1">
       <c r="A88" s="6">
         <v>702</v>
       </c>
@@ -12572,7 +12608,7 @@
         <v>2003</v>
       </c>
       <c r="H88" s="6" t="s">
-        <v>590</v>
+        <v>213</v>
       </c>
       <c r="I88" s="6" t="s">
         <v>1023</v>
@@ -12580,7 +12616,7 @@
       <c r="J88" s="7" t="s">
         <v>513</v>
       </c>
-      <c r="K88" s="59" t="s">
+      <c r="K88" s="42" t="s">
         <v>1023</v>
       </c>
       <c r="L88" s="7" t="s">
@@ -12656,7 +12692,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:41" ht="17">
+    <row r="89" spans="1:41" ht="17" hidden="1">
       <c r="A89" s="6">
         <v>640</v>
       </c>
@@ -12678,8 +12714,8 @@
       <c r="G89" s="6">
         <v>2017</v>
       </c>
-      <c r="H89" s="6" t="s">
-        <v>67</v>
+      <c r="H89" s="33" t="s">
+        <v>1100</v>
       </c>
       <c r="I89" s="6" t="s">
         <v>1023</v>
@@ -12691,7 +12727,7 @@
         <v>1023</v>
       </c>
       <c r="L89" s="7" t="s">
-        <v>1224</v>
+        <v>1223</v>
       </c>
       <c r="M89" s="7" t="s">
         <v>1201</v>
@@ -12778,7 +12814,7 @@
         <v>1024</v>
       </c>
       <c r="J90" s="22" t="s">
-        <v>139</v>
+        <v>1235</v>
       </c>
       <c r="K90" s="22" t="s">
         <v>1024</v>
@@ -12850,7 +12886,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:41" s="6" customFormat="1" ht="17">
+    <row r="91" spans="1:41" s="6" customFormat="1" ht="17" hidden="1">
       <c r="A91" s="6">
         <v>678</v>
       </c>
@@ -12872,8 +12908,8 @@
       <c r="G91" s="6">
         <v>1978</v>
       </c>
-      <c r="H91" s="6" t="s">
-        <v>67</v>
+      <c r="H91" s="33" t="s">
+        <v>1100</v>
       </c>
       <c r="I91" s="6" t="s">
         <v>1023</v>
@@ -12942,7 +12978,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:41" ht="17">
+    <row r="92" spans="1:41" ht="17" hidden="1">
       <c r="A92" s="6">
         <v>439</v>
       </c>
@@ -12973,7 +13009,7 @@
       <c r="J92" s="7" t="s">
         <v>138</v>
       </c>
-      <c r="K92" s="59" t="s">
+      <c r="K92" s="42" t="s">
         <v>1024</v>
       </c>
       <c r="L92" s="7" t="s">
@@ -13038,13 +13074,13 @@
         <v>1023</v>
       </c>
       <c r="J93" s="22" t="s">
-        <v>139</v>
+        <v>1235</v>
       </c>
       <c r="K93" s="22" t="s">
         <v>1024</v>
       </c>
       <c r="L93" s="22" t="s">
-        <v>1224</v>
+        <v>1223</v>
       </c>
       <c r="M93" s="22" t="s">
         <v>1200</v>
@@ -13107,7 +13143,7 @@
         <v>1023</v>
       </c>
       <c r="J94" s="7" t="s">
-        <v>1222</v>
+        <v>1236</v>
       </c>
       <c r="K94" s="7" t="s">
         <v>1023</v>
@@ -13124,7 +13160,7 @@
       <c r="AG94" s="8"/>
       <c r="AH94" s="8"/>
     </row>
-    <row r="95" spans="1:41" s="16" customFormat="1" ht="17">
+    <row r="95" spans="1:41" s="16" customFormat="1" ht="17" hidden="1">
       <c r="A95" s="6">
         <v>93</v>
       </c>
@@ -13146,14 +13182,14 @@
       <c r="G95" s="6">
         <v>1972</v>
       </c>
-      <c r="H95" s="6" t="s">
-        <v>358</v>
+      <c r="H95" s="33" t="s">
+        <v>1232</v>
       </c>
       <c r="I95" s="6" t="s">
         <v>1023</v>
       </c>
       <c r="J95" s="7" t="s">
-        <v>359</v>
+        <v>45</v>
       </c>
       <c r="K95" s="7" t="s">
         <v>1024</v>
@@ -13227,7 +13263,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:41" ht="17">
+    <row r="96" spans="1:41" ht="17" hidden="1">
       <c r="A96" s="6">
         <v>451</v>
       </c>
@@ -13249,8 +13285,8 @@
       <c r="G96" s="6">
         <v>1978</v>
       </c>
-      <c r="H96" s="6" t="s">
-        <v>67</v>
+      <c r="H96" s="33" t="s">
+        <v>1100</v>
       </c>
       <c r="I96" s="6" t="s">
         <v>1023</v>
@@ -13328,7 +13364,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="97" spans="1:41" s="21" customFormat="1" ht="34">
+    <row r="97" spans="1:41" s="21" customFormat="1" ht="34" hidden="1">
       <c r="A97" s="6">
         <v>150</v>
       </c>
@@ -13460,13 +13496,13 @@
         <v>1963</v>
       </c>
       <c r="H98" s="6" t="s">
-        <v>933</v>
+        <v>1234</v>
       </c>
       <c r="I98" s="6" t="s">
         <v>1023</v>
       </c>
       <c r="J98" s="7" t="s">
-        <v>934</v>
+        <v>1237</v>
       </c>
       <c r="K98" s="7" t="s">
         <v>1024</v>
@@ -13546,7 +13582,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="99" spans="1:41" s="6" customFormat="1" ht="34">
+    <row r="99" spans="1:41" s="6" customFormat="1" ht="17" hidden="1">
       <c r="A99" s="6">
         <v>732</v>
       </c>
@@ -13568,14 +13604,14 @@
       <c r="G99" s="6">
         <v>1954</v>
       </c>
-      <c r="H99" s="6" t="s">
-        <v>67</v>
+      <c r="H99" s="33" t="s">
+        <v>1100</v>
       </c>
       <c r="I99" s="6" t="s">
         <v>1023</v>
       </c>
-      <c r="J99" s="7" t="s">
-        <v>1026</v>
+      <c r="J99" s="36" t="s">
+        <v>1226</v>
       </c>
       <c r="K99" s="7" t="s">
         <v>1024</v>
@@ -13641,7 +13677,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:41" ht="17">
+    <row r="100" spans="1:41" ht="17" hidden="1">
       <c r="A100" s="6">
         <v>411</v>
       </c>
@@ -13712,7 +13748,7 @@
       <c r="AN100" s="6"/>
       <c r="AO100" s="6"/>
     </row>
-    <row r="101" spans="1:41" ht="34">
+    <row r="101" spans="1:41" ht="34" hidden="1">
       <c r="A101" s="6">
         <v>345</v>
       </c>
@@ -13734,8 +13770,8 @@
       <c r="G101" s="6">
         <v>1974</v>
       </c>
-      <c r="H101" s="6" t="s">
-        <v>983</v>
+      <c r="H101" s="33" t="s">
+        <v>1100</v>
       </c>
       <c r="I101" s="6" t="s">
         <v>1023</v>
@@ -13807,7 +13843,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:41" s="21" customFormat="1" ht="17">
+    <row r="102" spans="1:41" s="21" customFormat="1" ht="17" hidden="1">
       <c r="A102" s="6">
         <v>95</v>
       </c>
@@ -13910,7 +13946,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:41" ht="17">
+    <row r="103" spans="1:41" ht="17" hidden="1">
       <c r="A103" s="6">
         <v>432</v>
       </c>
@@ -13939,7 +13975,7 @@
         <v>1024</v>
       </c>
       <c r="J103" s="7" t="s">
-        <v>497</v>
+        <v>138</v>
       </c>
       <c r="K103" s="7" t="s">
         <v>1024</v>
@@ -14013,7 +14049,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:41" s="16" customFormat="1" ht="17">
+    <row r="104" spans="1:41" s="16" customFormat="1" ht="17" hidden="1">
       <c r="A104" s="4">
         <v>2</v>
       </c>
@@ -14108,7 +14144,9 @@
       <c r="I105" s="6" t="s">
         <v>1023</v>
       </c>
-      <c r="J105" s="7"/>
+      <c r="J105" s="36" t="s">
+        <v>1230</v>
+      </c>
       <c r="K105" s="7" t="s">
         <v>1023</v>
       </c>
@@ -14122,7 +14160,7 @@
       <c r="AG105" s="8"/>
       <c r="AH105" s="8"/>
     </row>
-    <row r="106" spans="1:41" s="6" customFormat="1" ht="34">
+    <row r="106" spans="1:41" s="6" customFormat="1" ht="17">
       <c r="A106" s="6">
         <v>100</v>
       </c>
@@ -14150,10 +14188,10 @@
       <c r="I106" s="6" t="s">
         <v>1023</v>
       </c>
-      <c r="J106" s="7" t="s">
-        <v>607</v>
-      </c>
-      <c r="K106" s="59" t="s">
+      <c r="J106" s="36" t="s">
+        <v>1230</v>
+      </c>
+      <c r="K106" s="42" t="s">
         <v>1023</v>
       </c>
       <c r="L106" s="36" t="s">
@@ -14202,7 +14240,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="107" spans="1:41" s="21" customFormat="1" ht="17">
+    <row r="107" spans="1:41" s="21" customFormat="1" ht="17" hidden="1">
       <c r="A107" s="6">
         <v>404</v>
       </c>
@@ -14231,9 +14269,9 @@
         <v>1024</v>
       </c>
       <c r="J107" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="K107" s="59" t="s">
+        <v>138</v>
+      </c>
+      <c r="K107" s="42" t="s">
         <v>1024</v>
       </c>
       <c r="L107" s="7" t="s">
@@ -14303,7 +14341,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:41" s="21" customFormat="1" ht="34">
+    <row r="108" spans="1:41" s="21" customFormat="1" ht="17" hidden="1">
       <c r="A108" s="21">
         <v>433</v>
       </c>
@@ -14328,8 +14366,8 @@
       <c r="I108" s="31" t="s">
         <v>1023</v>
       </c>
-      <c r="J108" s="38" t="s">
-        <v>704</v>
+      <c r="J108" s="5" t="s">
+        <v>765</v>
       </c>
       <c r="K108" s="22" t="s">
         <v>1023</v>
@@ -14386,7 +14424,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="109" spans="1:41" s="21" customFormat="1" ht="17">
+    <row r="109" spans="1:41" s="21" customFormat="1" ht="17" hidden="1">
       <c r="A109" s="6">
         <v>450</v>
       </c>
@@ -14491,7 +14529,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:41" s="6" customFormat="1" ht="17">
+    <row r="110" spans="1:41" s="6" customFormat="1" ht="17" hidden="1">
       <c r="A110" s="6">
         <v>710</v>
       </c>
@@ -14514,7 +14552,7 @@
         <v>2022</v>
       </c>
       <c r="H110" s="6" t="s">
-        <v>143</v>
+        <v>665</v>
       </c>
       <c r="I110" s="6" t="s">
         <v>1023</v>
@@ -14571,7 +14609,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:41" s="21" customFormat="1" ht="71" customHeight="1">
+    <row r="111" spans="1:41" s="21" customFormat="1" ht="71" hidden="1" customHeight="1">
       <c r="A111" s="6">
         <v>500</v>
       </c>
@@ -14594,7 +14632,7 @@
         <v>1986</v>
       </c>
       <c r="H111" s="6" t="s">
-        <v>535</v>
+        <v>1224</v>
       </c>
       <c r="I111" s="6" t="s">
         <v>1024</v>
@@ -14680,6 +14718,15 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:AO111" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <filterColumn colId="9">
+      <filters>
+        <filter val="step down"/>
+        <filter val="Stepped down"/>
+        <filter val="Stepped down and pass power to nephew"/>
+        <filter val="stepped down under pressure"/>
+        <filter val="stepped dwon under pressure"/>
+      </filters>
+    </filterColumn>
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:AO111">
       <sortCondition ref="C1:C111"/>
     </sortState>
